--- a/input/crossdock_namen.xlsx
+++ b/input/crossdock_namen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://postnl-my.sharepoint.com/personal/guus_ten_broeke_postnl_nl/Documents/Documents/Python Scripts/kp-simulator/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E9BE5B72-6D8E-46A3-9F90-4A7916EA96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{124EDB94-38E8-4D73-B590-2ECF20F394E4}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{E9BE5B72-6D8E-46A3-9F90-4A7916EA96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0392FA69-3C56-43B9-9C80-31EC399B2C1F}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EA34CE64-6141-4CC4-AD05-2698E7199AEE}"/>
   </bookViews>
@@ -58,100 +58,100 @@
     <t>XWW</t>
   </si>
   <si>
+    <t>NIWG</t>
+  </si>
+  <si>
+    <t>AMF</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>WVN</t>
+  </si>
+  <si>
+    <t>Crossdock Amsterdam</t>
+  </si>
+  <si>
+    <t>Crossdock Tiel</t>
+  </si>
+  <si>
+    <t>Extern Zaltbommel</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Nieuwegein</t>
+  </si>
+  <si>
+    <t>Zeewolde</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Waddinxveen</t>
+  </si>
+  <si>
+    <t>CROSSDOCK AMSTERDAM</t>
+  </si>
+  <si>
+    <t>CROSSDOCK ZALTBOMMEL</t>
+  </si>
+  <si>
+    <t>EXTERN WAALWIJK( Magna Tyres)</t>
+  </si>
+  <si>
+    <t>DEPOT NIEUWEGEIN</t>
+  </si>
+  <si>
+    <t>DEPOT AMERSFOORT</t>
+  </si>
+  <si>
+    <t>Depot Zeewolde Extern</t>
+  </si>
+  <si>
+    <t>DEPOT DEN BOSCH</t>
+  </si>
+  <si>
+    <t>DEPOT WADDINXVEEN</t>
+  </si>
+  <si>
+    <t>AfkVar</t>
+  </si>
+  <si>
+    <t>ZBM-DP</t>
+  </si>
+  <si>
+    <t>TL-HW</t>
+  </si>
+  <si>
+    <t>ASD-CD</t>
+  </si>
+  <si>
+    <t>NIWG-MO</t>
+  </si>
+  <si>
+    <t>HT-KK</t>
+  </si>
+  <si>
+    <t>AMF-WT</t>
+  </si>
+  <si>
+    <t>WVN-O</t>
+  </si>
+  <si>
+    <t>ZWO-FW</t>
+  </si>
+  <si>
+    <t>EX-WW-KG</t>
+  </si>
+  <si>
     <t>ZWD</t>
-  </si>
-  <si>
-    <t>NIWG</t>
-  </si>
-  <si>
-    <t>AMF</t>
-  </si>
-  <si>
-    <t>HT</t>
-  </si>
-  <si>
-    <t>WVN</t>
-  </si>
-  <si>
-    <t>Crossdock Amsterdam</t>
-  </si>
-  <si>
-    <t>Crossdock Tiel</t>
-  </si>
-  <si>
-    <t>Extern Zaltbommel</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Nieuwegein</t>
-  </si>
-  <si>
-    <t>Zeewolde</t>
-  </si>
-  <si>
-    <t>Amersfoort</t>
-  </si>
-  <si>
-    <t>Den Bosch</t>
-  </si>
-  <si>
-    <t>Waddinxveen</t>
-  </si>
-  <si>
-    <t>CROSSDOCK AMSTERDAM</t>
-  </si>
-  <si>
-    <t>CROSSDOCK ZALTBOMMEL</t>
-  </si>
-  <si>
-    <t>EXTERN WAALWIJK( Magna Tyres)</t>
-  </si>
-  <si>
-    <t>DEPOT NIEUWEGEIN</t>
-  </si>
-  <si>
-    <t>DEPOT AMERSFOORT</t>
-  </si>
-  <si>
-    <t>Depot Zeewolde Extern</t>
-  </si>
-  <si>
-    <t>DEPOT DEN BOSCH</t>
-  </si>
-  <si>
-    <t>DEPOT WADDINXVEEN</t>
-  </si>
-  <si>
-    <t>AfkVar</t>
-  </si>
-  <si>
-    <t>ZBM-DP</t>
-  </si>
-  <si>
-    <t>TL-HW</t>
-  </si>
-  <si>
-    <t>ASD-CD</t>
-  </si>
-  <si>
-    <t>NIWG-MO</t>
-  </si>
-  <si>
-    <t>HT-KK</t>
-  </si>
-  <si>
-    <t>AMF-WT</t>
-  </si>
-  <si>
-    <t>WVN-O</t>
-  </si>
-  <si>
-    <t>ZWO-FW</t>
-  </si>
-  <si>
-    <t>EX-WW-KG</t>
   </si>
 </sst>
 </file>
@@ -506,7 +506,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,13 +534,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -548,13 +548,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -562,13 +562,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,83 +576,83 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
